--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.31211433333333</v>
+        <v>8.841467</v>
       </c>
       <c r="H2">
-        <v>30.936343</v>
+        <v>26.524401</v>
       </c>
       <c r="I2">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060068</v>
       </c>
       <c r="J2">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060067</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.179771666666667</v>
+        <v>1.572065666666667</v>
       </c>
       <c r="N2">
-        <v>6.539315</v>
+        <v>4.716197</v>
       </c>
       <c r="O2">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834306</v>
       </c>
       <c r="P2">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834305</v>
       </c>
       <c r="Q2">
-        <v>22.47805464722722</v>
+        <v>13.89936671366633</v>
       </c>
       <c r="R2">
-        <v>202.302491825045</v>
+        <v>125.094300422997</v>
       </c>
       <c r="S2">
-        <v>0.1487912066205221</v>
+        <v>0.1041221974030034</v>
       </c>
       <c r="T2">
-        <v>0.1487912066205221</v>
+        <v>0.1041221974030034</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.31211433333333</v>
+        <v>8.841467</v>
       </c>
       <c r="H3">
-        <v>30.936343</v>
+        <v>26.524401</v>
       </c>
       <c r="I3">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060068</v>
       </c>
       <c r="J3">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.713403</v>
       </c>
       <c r="O3">
-        <v>0.4567402255103586</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="P3">
-        <v>0.4567402255103585</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="Q3">
-        <v>43.70068843391434</v>
+        <v>37.468377694067</v>
       </c>
       <c r="R3">
-        <v>393.306195905229</v>
+        <v>337.2153992466031</v>
       </c>
       <c r="S3">
-        <v>0.289272281978</v>
+        <v>0.2806811201546365</v>
       </c>
       <c r="T3">
-        <v>0.289272281978</v>
+        <v>0.2806811201546364</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.31211433333333</v>
+        <v>8.841467</v>
       </c>
       <c r="H4">
-        <v>30.936343</v>
+        <v>26.524401</v>
       </c>
       <c r="I4">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060068</v>
       </c>
       <c r="J4">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060067</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.860789</v>
+        <v>3.123785</v>
       </c>
       <c r="N4">
-        <v>8.582367000000001</v>
+        <v>9.371354999999999</v>
       </c>
       <c r="O4">
-        <v>0.3083291105451987</v>
+        <v>0.3496649652969456</v>
       </c>
       <c r="P4">
-        <v>0.3083291105451986</v>
+        <v>0.3496649652969455</v>
       </c>
       <c r="Q4">
-        <v>29.50078325154234</v>
+        <v>27.618841992595</v>
       </c>
       <c r="R4">
-        <v>265.5070492638811</v>
+        <v>248.569577933355</v>
       </c>
       <c r="S4">
-        <v>0.1952774474987289</v>
+        <v>0.2068968016483669</v>
       </c>
       <c r="T4">
-        <v>0.1952774474987289</v>
+        <v>0.2068968016483669</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>12.310314</v>
       </c>
       <c r="I5">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="J5">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.179771666666667</v>
+        <v>1.572065666666667</v>
       </c>
       <c r="N5">
-        <v>6.539315</v>
+        <v>4.716197</v>
       </c>
       <c r="O5">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834306</v>
       </c>
       <c r="P5">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834305</v>
       </c>
       <c r="Q5">
-        <v>8.944557888323333</v>
+        <v>6.450873995095334</v>
       </c>
       <c r="R5">
-        <v>80.50102099490999</v>
+        <v>58.05786595585799</v>
       </c>
       <c r="S5">
-        <v>0.05920759522020769</v>
+        <v>0.04832444451435328</v>
       </c>
       <c r="T5">
-        <v>0.05920759522020767</v>
+        <v>0.04832444451435327</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>12.310314</v>
       </c>
       <c r="I6">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="J6">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>12.713403</v>
       </c>
       <c r="O6">
-        <v>0.4567402255103586</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="P6">
-        <v>0.4567402255103585</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="Q6">
         <v>17.389553659838</v>
@@ -818,10 +818,10 @@
         <v>156.505982938542</v>
       </c>
       <c r="S6">
-        <v>0.1151083895936155</v>
+        <v>0.1302677004082129</v>
       </c>
       <c r="T6">
-        <v>0.1151083895936155</v>
+        <v>0.1302677004082129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>12.310314</v>
       </c>
       <c r="I7">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="J7">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.860789</v>
+        <v>3.123785</v>
       </c>
       <c r="N7">
-        <v>8.582367000000001</v>
+        <v>9.371354999999999</v>
       </c>
       <c r="O7">
-        <v>0.3083291105451987</v>
+        <v>0.3496649652969456</v>
       </c>
       <c r="P7">
-        <v>0.3083291105451986</v>
+        <v>0.3496649652969455</v>
       </c>
       <c r="Q7">
-        <v>11.739070292582</v>
+        <v>12.81825807283</v>
       </c>
       <c r="R7">
-        <v>105.651632633238</v>
+        <v>115.36432265547</v>
       </c>
       <c r="S7">
-        <v>0.0777055871092413</v>
+        <v>0.09602345379588834</v>
       </c>
       <c r="T7">
-        <v>0.07770558710924126</v>
+        <v>0.09602345379588831</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.866538</v>
+        <v>1.997574666666667</v>
       </c>
       <c r="H8">
-        <v>5.599614</v>
+        <v>5.992724</v>
       </c>
       <c r="I8">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="J8">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.179771666666667</v>
+        <v>1.572065666666667</v>
       </c>
       <c r="N8">
-        <v>6.539315</v>
+        <v>4.716197</v>
       </c>
       <c r="O8">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834306</v>
       </c>
       <c r="P8">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834305</v>
       </c>
       <c r="Q8">
-        <v>4.068626647156667</v>
+        <v>3.140318550069778</v>
       </c>
       <c r="R8">
-        <v>36.61763982441</v>
+        <v>28.262866950628</v>
       </c>
       <c r="S8">
-        <v>0.02693186210371304</v>
+        <v>0.02352458746607384</v>
       </c>
       <c r="T8">
-        <v>0.02693186210371303</v>
+        <v>0.02352458746607384</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.866538</v>
+        <v>1.997574666666667</v>
       </c>
       <c r="H9">
-        <v>5.599614</v>
+        <v>5.992724</v>
       </c>
       <c r="I9">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="J9">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>12.713403</v>
       </c>
       <c r="O9">
-        <v>0.4567402255103586</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="P9">
-        <v>0.4567402255103585</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="Q9">
-        <v>7.910016602938001</v>
+        <v>8.465323919974667</v>
       </c>
       <c r="R9">
-        <v>71.19014942644199</v>
+        <v>76.18791527977201</v>
       </c>
       <c r="S9">
-        <v>0.05235955393874307</v>
+        <v>0.06341498475677448</v>
       </c>
       <c r="T9">
-        <v>0.05235955393874305</v>
+        <v>0.06341498475677447</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.866538</v>
+        <v>1.997574666666667</v>
       </c>
       <c r="H10">
-        <v>5.599614</v>
+        <v>5.992724</v>
       </c>
       <c r="I10">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="J10">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.860789</v>
+        <v>3.123785</v>
       </c>
       <c r="N10">
-        <v>8.582367000000001</v>
+        <v>9.371354999999999</v>
       </c>
       <c r="O10">
-        <v>0.3083291105451987</v>
+        <v>0.3496649652969456</v>
       </c>
       <c r="P10">
-        <v>0.3083291105451986</v>
+        <v>0.3496649652969455</v>
       </c>
       <c r="Q10">
-        <v>5.339771378482001</v>
+        <v>6.239993780113333</v>
       </c>
       <c r="R10">
-        <v>48.05794240633801</v>
+        <v>56.15994402102</v>
       </c>
       <c r="S10">
-        <v>0.0353460759372285</v>
+        <v>0.0467447098526903</v>
       </c>
       <c r="T10">
-        <v>0.03534607593722849</v>
+        <v>0.04674470985269027</v>
       </c>
     </row>
   </sheetData>
